--- a/src/main/resources/excel/year.xlsx
+++ b/src/main/resources/excel/year.xlsx
@@ -1513,7 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1540,18 +1540,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1835,15 +1836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>9</v>
+      <c r="A1" s="14">
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2112,25 +2111,25 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>1766</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">

--- a/src/main/resources/excel/year.xlsx
+++ b/src/main/resources/excel/year.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="213">
   <si>
     <t>Copper</t>
   </si>
@@ -41,15 +41,9 @@
     <t>3800 BC</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Levant</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>Bismuth</t>
-  </si>
-  <si>
-    <t>Jabirian corpus</t>
   </si>
   <si>
     <t>Phosphorus</t>
@@ -1540,6 +1531,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1552,7 +1544,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,12 +1827,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14">
+      <c r="A1" s="10">
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1855,7 +1851,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>82</v>
       </c>
@@ -1866,22 +1862,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1890,13 +1886,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1905,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1920,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1935,13 +1931,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1950,10 +1946,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -1965,13 +1961,13 @@
         <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1980,13 +1976,13 @@
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1995,13 +1991,13 @@
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2010,28 +2006,28 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -2040,13 +2036,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>1669</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2055,13 +2051,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
         <v>1735</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2070,13 +2066,13 @@
         <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5">
         <v>1735</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5"/>
     </row>
@@ -2085,13 +2081,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
         <v>1751</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5"/>
     </row>
@@ -2100,65 +2096,65 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5">
         <v>1755</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1766</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1766</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>1771</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>1772</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -2167,13 +2163,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>1772</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -2182,13 +2178,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
         <v>1774</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -2197,13 +2193,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5">
         <v>1774</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -2212,13 +2208,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>1778</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -2227,43 +2223,43 @@
         <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
         <v>1781</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5">
         <v>1782</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>38</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5">
         <v>1787</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -2272,13 +2268,13 @@
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5">
         <v>1789</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -2287,28 +2283,28 @@
         <v>92</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5">
         <v>1789</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5">
         <v>1791</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -2317,28 +2313,28 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5">
         <v>1794</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5">
         <v>1794</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -2347,13 +2343,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5">
         <v>1798</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -2362,13 +2358,13 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5">
         <v>1801</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -2377,13 +2373,13 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="5">
         <v>1801</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -2392,13 +2388,13 @@
         <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5">
         <v>1802</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -2407,13 +2403,13 @@
         <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5">
         <v>1802</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -2422,13 +2418,13 @@
         <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5">
         <v>1803</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E40" s="5"/>
     </row>
@@ -2437,13 +2433,13 @@
         <v>76</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" s="5">
         <v>1803</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -2452,13 +2448,13 @@
         <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="5">
         <v>1803</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -2467,13 +2463,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="5">
         <v>1804</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -2482,13 +2478,13 @@
         <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="5">
         <v>1807</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" s="5"/>
     </row>
@@ -2497,13 +2493,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C45" s="5">
         <v>1807</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E45" s="6"/>
     </row>
@@ -2512,13 +2508,13 @@
         <v>20</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46" s="5">
         <v>1808</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -2527,13 +2523,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5">
         <v>1808</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -2542,13 +2538,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" s="5">
         <v>1810</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -2557,13 +2553,13 @@
         <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" s="5">
         <v>1811</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2572,13 +2568,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5">
         <v>1817</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5"/>
     </row>
@@ -2587,13 +2583,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5">
         <v>1817</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E51" s="5"/>
     </row>
@@ -2602,13 +2598,13 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5">
         <v>1817</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -2617,13 +2613,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5">
         <v>1823</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E53" s="5"/>
     </row>
@@ -2632,13 +2628,13 @@
         <v>13</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" s="5">
         <v>1825</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E54" s="5"/>
     </row>
@@ -2647,13 +2643,13 @@
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="5">
         <v>1825</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E55" s="5"/>
     </row>
@@ -2662,13 +2658,13 @@
         <v>90</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" s="5">
         <v>1829</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -2677,13 +2673,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="5">
         <v>1838</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E57" s="5"/>
     </row>
@@ -2692,13 +2688,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C58" s="5">
         <v>1843</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -2707,13 +2703,13 @@
         <v>65</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5">
         <v>1843</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -2722,13 +2718,13 @@
         <v>44</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C60" s="5">
         <v>1844</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E60" s="6"/>
     </row>
@@ -2737,13 +2733,13 @@
         <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" s="5">
         <v>1860</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E61" s="5"/>
     </row>
@@ -2752,13 +2748,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5">
         <v>1861</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E62" s="5"/>
     </row>
@@ -2767,13 +2763,13 @@
         <v>81</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C63" s="5">
         <v>1861</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -2782,13 +2778,13 @@
         <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C64" s="5">
         <v>1863</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -2797,13 +2793,13 @@
         <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="5">
         <v>1868</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E65" s="5"/>
     </row>
@@ -2812,13 +2808,13 @@
         <v>31</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" s="5">
         <v>1875</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E66" s="5"/>
     </row>
@@ -2827,13 +2823,13 @@
         <v>70</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" s="5">
         <v>1878</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E67" s="5"/>
     </row>
@@ -2842,13 +2838,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" s="5">
         <v>1878</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E68" s="5"/>
     </row>
@@ -2857,13 +2853,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C69" s="5">
         <v>1879</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -2872,13 +2868,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" s="5">
         <v>1879</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -2887,13 +2883,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" s="5">
         <v>1879</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -2902,13 +2898,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" s="5">
         <v>1880</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -2917,13 +2913,13 @@
         <v>59</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="5">
         <v>1885</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -2932,13 +2928,13 @@
         <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C74" s="5">
         <v>1885</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -2947,13 +2943,13 @@
         <v>32</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C75" s="5">
         <v>1886</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E75" s="5"/>
     </row>
@@ -2962,13 +2958,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C76" s="5">
         <v>1886</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -2977,13 +2973,13 @@
         <v>18</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C77" s="5">
         <v>1894</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E77" s="5"/>
     </row>
@@ -2992,13 +2988,13 @@
         <v>63</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C78" s="5">
         <v>1896</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E78" s="3"/>
     </row>
@@ -3007,13 +3003,13 @@
         <v>36</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C79" s="5">
         <v>1898</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E79" s="3"/>
     </row>
@@ -3022,13 +3018,13 @@
         <v>10</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C80" s="5">
         <v>1898</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E80" s="3"/>
     </row>
@@ -3037,13 +3033,13 @@
         <v>54</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C81" s="5">
         <v>1898</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3"/>
     </row>
@@ -3052,13 +3048,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C82" s="5">
         <v>1898</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E82" s="5"/>
     </row>
@@ -3067,13 +3063,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" s="5">
         <v>1898</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E83" s="5"/>
     </row>
@@ -3082,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C84" s="5">
         <v>1899</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E84" s="5"/>
     </row>
@@ -3097,13 +3093,13 @@
         <v>89</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C85" s="5">
         <v>1902</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E85" s="5"/>
     </row>
@@ -3112,13 +3108,13 @@
         <v>71</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C86" s="5">
         <v>1906</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E86" s="5"/>
     </row>
@@ -3127,13 +3123,13 @@
         <v>75</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C87" s="5">
         <v>1908</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E87" s="5"/>
     </row>
@@ -3142,13 +3138,13 @@
         <v>91</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C88" s="5">
         <v>1913</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E88" s="5"/>
     </row>
@@ -3157,13 +3153,13 @@
         <v>72</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C89" s="5">
         <v>1922</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E89" s="6"/>
     </row>
@@ -3172,13 +3168,13 @@
         <v>43</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C90" s="5">
         <v>1937</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E90" s="5"/>
     </row>
@@ -3187,13 +3183,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C91" s="5">
         <v>1939</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E91" s="5"/>
     </row>
@@ -3202,13 +3198,13 @@
         <v>93</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" s="5">
         <v>1940</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E92" s="5"/>
     </row>
@@ -3217,13 +3213,13 @@
         <v>85</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C93" s="5">
         <v>1940</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E93" s="5"/>
     </row>
@@ -3232,13 +3228,13 @@
         <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C94" s="5">
         <v>1940</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E94" s="3"/>
     </row>
@@ -3247,13 +3243,13 @@
         <v>61</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5">
         <v>1942</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E95" s="3"/>
     </row>
@@ -3262,13 +3258,13 @@
         <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C96" s="5">
         <v>1944</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -3277,13 +3273,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C97" s="5">
         <v>1944</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E97" s="5"/>
     </row>
@@ -3292,13 +3288,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C98" s="5">
         <v>1949</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -3307,13 +3303,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C99" s="5">
         <v>1950</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -3322,13 +3318,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C100" s="5">
         <v>1952</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -3337,13 +3333,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C101" s="5">
         <v>1952</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E101" s="3"/>
     </row>
@@ -3352,13 +3348,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C102" s="5">
         <v>1955</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E102" s="3"/>
     </row>
@@ -3367,13 +3363,13 @@
         <v>103</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C103" s="5">
         <v>1961</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E103" s="3"/>
     </row>
@@ -3382,13 +3378,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C104" s="5">
         <v>1966</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E104" s="3"/>
     </row>
@@ -3397,13 +3393,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C105" s="5">
         <v>1969</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -3412,13 +3408,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C106" s="5">
         <v>1970</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E106" s="3"/>
     </row>
@@ -3427,13 +3423,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C107" s="5">
         <v>1974</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -3442,13 +3438,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C108" s="5">
         <v>1981</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E108" s="3"/>
     </row>
@@ -3457,13 +3453,13 @@
         <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C109" s="5">
         <v>1982</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E109" s="3"/>
     </row>
@@ -3472,13 +3468,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C110" s="5">
         <v>1984</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E110" s="3"/>
     </row>
@@ -3487,13 +3483,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C111" s="5">
         <v>1994</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E111" s="3"/>
     </row>
@@ -3502,13 +3498,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C112" s="5">
         <v>1994</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -3517,13 +3513,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C113" s="5">
         <v>1996</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E113" s="5"/>
     </row>
@@ -3532,13 +3528,13 @@
         <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C114" s="5">
         <v>1999</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E114" s="3"/>
     </row>
@@ -3547,13 +3543,13 @@
         <v>116</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C115" s="5">
         <v>2000</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E115" s="3"/>
     </row>
@@ -3562,13 +3558,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C116" s="5">
         <v>2002</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E116" s="3"/>
     </row>
@@ -3577,13 +3573,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C117" s="5">
         <v>2003</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E117" s="3"/>
     </row>
@@ -3592,13 +3588,13 @@
         <v>113</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C118" s="5">
         <v>2003</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E118" s="3"/>
     </row>
@@ -3607,13 +3603,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C119" s="1">
         <v>2009</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E119" s="4"/>
     </row>
@@ -3801,21 +3797,19 @@
     <hyperlink ref="D118" r:id="rId174" tooltip="RIKEN" display="https://en.wikipedia.org/wiki/RIKEN"/>
     <hyperlink ref="B119" r:id="rId175" tooltip="Tennessine" display="https://en.wikipedia.org/wiki/Tennessine"/>
     <hyperlink ref="D1" r:id="rId176" location="History" tooltip="Copper" display="https://en.wikipedia.org/wiki/Copper - History"/>
-    <hyperlink ref="D2" r:id="rId177" location="History" tooltip="Lead" display="https://en.wikipedia.org/wiki/Lead - History"/>
-    <hyperlink ref="D3" r:id="rId178" location="History" tooltip="Gold" display="https://en.wikipedia.org/wiki/Gold - History"/>
-    <hyperlink ref="D4" r:id="rId179" location="History" tooltip="Silver" display="https://en.wikipedia.org/wiki/Silver - History"/>
-    <hyperlink ref="D5" r:id="rId180" tooltip="Ferrous metallurgy" display="https://en.wikipedia.org/wiki/Ferrous_metallurgy"/>
-    <hyperlink ref="D6" r:id="rId181" location="History_and_etymology" tooltip="Carbon" display="https://en.wikipedia.org/wiki/Carbon - History_and_etymology"/>
-    <hyperlink ref="D7" r:id="rId182" location="History" tooltip="Tin" display="History"/>
-    <hyperlink ref="D8" r:id="rId183" location="History" tooltip="Sulfur" display="https://en.wikipedia.org/wiki/Sulfur - History"/>
-    <hyperlink ref="D9" r:id="rId184" location="History" tooltip="Mercury (element)" display="https://en.wikipedia.org/wiki/Mercury_(element) - History"/>
-    <hyperlink ref="D10" r:id="rId185" tooltip="History of metallurgy in the Indian subcontinent" display="https://en.wikipedia.org/wiki/History_of_metallurgy_in_the_Indian_subcontinent"/>
-    <hyperlink ref="D11" r:id="rId186" tooltip="Alchemists" display="https://en.wikipedia.org/wiki/Alchemists"/>
-    <hyperlink ref="D12" r:id="rId187" tooltip="Jabir ibn Hayyan" display="https://en.wikipedia.org/wiki/Jabir_ibn_Hayyan"/>
-    <hyperlink ref="D13" r:id="rId188" tooltip="Jabir ibn Hayyan" display="https://en.wikipedia.org/wiki/Jabir_ibn_Hayyan"/>
+    <hyperlink ref="D3" r:id="rId177" location="History" tooltip="Gold" display="https://en.wikipedia.org/wiki/Gold - History"/>
+    <hyperlink ref="D4" r:id="rId178" location="History" tooltip="Silver" display="https://en.wikipedia.org/wiki/Silver - History"/>
+    <hyperlink ref="D5" r:id="rId179" tooltip="Ferrous metallurgy" display="https://en.wikipedia.org/wiki/Ferrous_metallurgy"/>
+    <hyperlink ref="D6" r:id="rId180" location="History_and_etymology" tooltip="Carbon" display="https://en.wikipedia.org/wiki/Carbon - History_and_etymology"/>
+    <hyperlink ref="D7" r:id="rId181" location="History" tooltip="Tin" display="History"/>
+    <hyperlink ref="D8" r:id="rId182" location="History" tooltip="Sulfur" display="https://en.wikipedia.org/wiki/Sulfur - History"/>
+    <hyperlink ref="D9" r:id="rId183" location="History" tooltip="Mercury (element)" display="https://en.wikipedia.org/wiki/Mercury_(element) - History"/>
+    <hyperlink ref="D10" r:id="rId184" tooltip="History of metallurgy in the Indian subcontinent" display="https://en.wikipedia.org/wiki/History_of_metallurgy_in_the_Indian_subcontinent"/>
+    <hyperlink ref="D11" r:id="rId185" tooltip="Alchemists" display="https://en.wikipedia.org/wiki/Alchemists"/>
+    <hyperlink ref="D12" r:id="rId186" tooltip="Jabir ibn Hayyan" display="https://en.wikipedia.org/wiki/Jabir_ibn_Hayyan"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="1.1812500423855252" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId189"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId187"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;L&amp;"Arial"&amp;8Information Type: Working Standard_x000D_Disclosure Range: _x000D_Information Owner: horea.bucerzan_x000D_Company: NTT DATA Romania</oddHeader>
   </headerFooter>
